--- a/biology/Zoologie/Betelgeusia/Betelgeusia.xlsx
+++ b/biology/Zoologie/Betelgeusia/Betelgeusia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Betelgeusia est un genre éteint d'étoiles de mer de la famille des Astropectinidae ayant vécu du Jurassique moyen au Crétacé[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Betelgeusia est un genre éteint d'étoiles de mer de la famille des Astropectinidae ayant vécu du Jurassique moyen au Crétacé.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Betelgeusia se retrouvent aux Pays-Bas, aux États-Unis (Texas), au Maroc et Inde.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (19 décembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (19 décembre 2023) :
 † Betelgeusia brezinai Blake, Halligan &amp; Larson, 2018
 † Betelgeusia exposita Blake &amp; Jagt, 2005
 † Betelgeusia orientalis Blake &amp; Reboul, 2011
@@ -576,13 +592,85 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre Betelgeusia a été créé en 1998 par les paléontologues Daniel B. Blake (d) et Robert Reid, III, avec comme espèce type Betelgeusia riedi[3]
-Étymologie
-Le nom générique, Betelgeusia, a été choisi en référence à l'étoile Bételgeuse de la constellation d’Orion[3].
-Publication originale
-(en) Daniel B. Blake et Robert Reid, « Some Albian (Cretaceous) Asteroids (Echinodermata) from Texas and Their Paleobiological Implications », Journal of Paleontology, États-Unis, vol. 72, no 3,‎ mai 1998, p. 512-532 (ISSN 0022-3360, e-ISSN 1937-2337, JSTOR 1306650).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Betelgeusia a été créé en 1998 par les paléontologues Daniel B. Blake (d) et Robert Reid, III, avec comme espèce type Betelgeusia riedi
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Betelgeusia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Betelgeusia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Betelgeusia, a été choisi en référence à l'étoile Bételgeuse de la constellation d’Orion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Betelgeusia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Betelgeusia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Daniel B. Blake et Robert Reid, « Some Albian (Cretaceous) Asteroids (Echinodermata) from Texas and Their Paleobiological Implications », Journal of Paleontology, États-Unis, vol. 72, no 3,‎ mai 1998, p. 512-532 (ISSN 0022-3360, e-ISSN 1937-2337, JSTOR 1306650).</t>
         </is>
       </c>
     </row>
